--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Hbegf-Cd9.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H2">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J2">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="N2">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="O2">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="P2">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="Q2">
-        <v>124.6071873845404</v>
+        <v>223.221127760889</v>
       </c>
       <c r="R2">
-        <v>124.6071873845404</v>
+        <v>2008.990149848001</v>
       </c>
       <c r="S2">
-        <v>0.01272786779724935</v>
+        <v>0.02009224094259657</v>
       </c>
       <c r="T2">
-        <v>0.01272786779724935</v>
+        <v>0.02009224094259658</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H3">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J3">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="N3">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="O3">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="P3">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="Q3">
-        <v>206.6897684987359</v>
+        <v>234.3596630708</v>
       </c>
       <c r="R3">
-        <v>206.6897684987359</v>
+        <v>2109.2369676372</v>
       </c>
       <c r="S3">
-        <v>0.02111210519805351</v>
+        <v>0.02109482585666474</v>
       </c>
       <c r="T3">
-        <v>0.02111210519805351</v>
+        <v>0.02109482585666475</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H4">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J4">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="N4">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="O4">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="P4">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="Q4">
-        <v>229.2745591307432</v>
+        <v>268.217912025691</v>
       </c>
       <c r="R4">
-        <v>229.2745591307432</v>
+        <v>2413.961208231219</v>
       </c>
       <c r="S4">
-        <v>0.02341900446627669</v>
+        <v>0.0241424231102043</v>
       </c>
       <c r="T4">
-        <v>0.02341900446627669</v>
+        <v>0.0241424231102043</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H5">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J5">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="N5">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="O5">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="P5">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="Q5">
-        <v>272.1166163896842</v>
+        <v>335.8116240314986</v>
       </c>
       <c r="R5">
-        <v>272.1166163896842</v>
+        <v>3022.304616283488</v>
       </c>
       <c r="S5">
-        <v>0.02779506055420698</v>
+        <v>0.03022656559908176</v>
       </c>
       <c r="T5">
-        <v>0.02779506055420698</v>
+        <v>0.03022656559908177</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H6">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J6">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="N6">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="O6">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="P6">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="Q6">
-        <v>1175.692689013095</v>
+        <v>1361.546658307667</v>
       </c>
       <c r="R6">
-        <v>1175.692689013095</v>
+        <v>12253.919924769</v>
       </c>
       <c r="S6">
-        <v>0.1200898714595962</v>
+        <v>0.1225534687854849</v>
       </c>
       <c r="T6">
-        <v>0.1200898714595962</v>
+        <v>0.1225534687854849</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.94366262579964</v>
+        <v>5.600099</v>
       </c>
       <c r="H7">
-        <v>4.94366262579964</v>
+        <v>16.800297</v>
       </c>
       <c r="I7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="J7">
-        <v>0.221701518708235</v>
+        <v>0.2373417163582682</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="N7">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="O7">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="P7">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="Q7">
-        <v>162.1007657515043</v>
+        <v>213.6661417787064</v>
       </c>
       <c r="R7">
-        <v>162.1007657515043</v>
+        <v>1922.995276008357</v>
       </c>
       <c r="S7">
-        <v>0.01655760923285237</v>
+        <v>0.01923219206423594</v>
       </c>
       <c r="T7">
-        <v>0.01655760923285237</v>
+        <v>0.01923219206423595</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H8">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J8">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="N8">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="O8">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="P8">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="Q8">
-        <v>136.2050211376636</v>
+        <v>223.480086265019</v>
       </c>
       <c r="R8">
-        <v>136.2050211376636</v>
+        <v>2011.320776385171</v>
       </c>
       <c r="S8">
-        <v>0.01391251611363164</v>
+        <v>0.02011554992195397</v>
       </c>
       <c r="T8">
-        <v>0.01391251611363164</v>
+        <v>0.02011554992195397</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H9">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J9">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="N9">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="O9">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="P9">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="Q9">
-        <v>225.9274515235697</v>
+        <v>234.6315433734667</v>
       </c>
       <c r="R9">
-        <v>225.9274515235697</v>
+        <v>2111.6838903612</v>
       </c>
       <c r="S9">
-        <v>0.02307711774191141</v>
+        <v>0.02111929793331591</v>
       </c>
       <c r="T9">
-        <v>0.02307711774191141</v>
+        <v>0.02111929793331591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H10">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J10">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="N10">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="O10">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="P10">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="Q10">
-        <v>250.614325130059</v>
+        <v>268.5290712334943</v>
       </c>
       <c r="R10">
-        <v>250.614325130059</v>
+        <v>2416.761641101448</v>
       </c>
       <c r="S10">
-        <v>0.02559873202585425</v>
+        <v>0.02417043069997594</v>
       </c>
       <c r="T10">
-        <v>0.02559873202585425</v>
+        <v>0.02417043069997595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H11">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J11">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="N11">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="O11">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="P11">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="Q11">
-        <v>297.4439136715865</v>
+        <v>336.2011986058275</v>
       </c>
       <c r="R11">
-        <v>297.4439136715865</v>
+        <v>3025.810787452447</v>
       </c>
       <c r="S11">
-        <v>0.03038209022907531</v>
+        <v>0.03026163139366421</v>
       </c>
       <c r="T11">
-        <v>0.03038209022907531</v>
+        <v>0.03026163139366421</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H12">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J12">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="N12">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="O12">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="P12">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="Q12">
-        <v>1285.120472740023</v>
+        <v>1363.126186596387</v>
       </c>
       <c r="R12">
-        <v>1285.120472740023</v>
+        <v>12268.13567936749</v>
       </c>
       <c r="S12">
-        <v>0.1312672553156668</v>
+        <v>0.1226956428855397</v>
       </c>
       <c r="T12">
-        <v>0.1312672553156668</v>
+        <v>0.1226956428855397</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.4037948097371</v>
+        <v>5.606595666666666</v>
       </c>
       <c r="H13">
-        <v>5.4037948097371</v>
+        <v>16.819787</v>
       </c>
       <c r="I13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="J13">
-        <v>0.2423364227676461</v>
+        <v>0.2376170561365961</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="N13">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="O13">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="P13">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="Q13">
-        <v>177.1883202650183</v>
+        <v>213.9140155575608</v>
       </c>
       <c r="R13">
-        <v>177.1883202650183</v>
+        <v>1925.226140018047</v>
       </c>
       <c r="S13">
-        <v>0.01809871134150669</v>
+        <v>0.01925450330214632</v>
       </c>
       <c r="T13">
-        <v>0.01809871134150669</v>
+        <v>0.01925450330214632</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H14">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J14">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="N14">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="O14">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="P14">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="Q14">
-        <v>43.56093619978938</v>
+        <v>70.70972899523601</v>
       </c>
       <c r="R14">
-        <v>43.56093619978938</v>
+        <v>636.387560957124</v>
       </c>
       <c r="S14">
-        <v>0.004449485207978621</v>
+        <v>0.006364616674994306</v>
       </c>
       <c r="T14">
-        <v>0.004449485207978621</v>
+        <v>0.006364616674994309</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H15">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J15">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="N15">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="O15">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="P15">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="Q15">
-        <v>72.25586266494705</v>
+        <v>74.23808144586667</v>
       </c>
       <c r="R15">
-        <v>72.25586266494705</v>
+        <v>668.1427330128001</v>
       </c>
       <c r="S15">
-        <v>0.00738049776163835</v>
+        <v>0.006682205374055139</v>
       </c>
       <c r="T15">
-        <v>0.00738049776163835</v>
+        <v>0.00668220537405514</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H16">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J16">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="N16">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="O16">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="P16">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="Q16">
-        <v>80.15119073113958</v>
+        <v>84.96335477401732</v>
       </c>
       <c r="R16">
-        <v>80.15119073113958</v>
+        <v>764.6701929661559</v>
       </c>
       <c r="S16">
-        <v>0.008186957597155658</v>
+        <v>0.007647592378618802</v>
       </c>
       <c r="T16">
-        <v>0.008186957597155658</v>
+        <v>0.007647592378618804</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H17">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J17">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="N17">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="O17">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="P17">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="Q17">
-        <v>95.12817690742807</v>
+        <v>106.3750065547235</v>
       </c>
       <c r="R17">
-        <v>95.12817690742807</v>
+        <v>957.3750589925119</v>
       </c>
       <c r="S17">
-        <v>0.009716765821337446</v>
+        <v>0.00957486544130917</v>
       </c>
       <c r="T17">
-        <v>0.009716765821337446</v>
+        <v>0.009574865441309172</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H18">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J18">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="N18">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="O18">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="P18">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="Q18">
-        <v>411.0057797758483</v>
+        <v>431.2969663267365</v>
       </c>
       <c r="R18">
-        <v>411.0057797758483</v>
+        <v>3881.672696940628</v>
       </c>
       <c r="S18">
-        <v>0.04198174550516656</v>
+        <v>0.03882124712912631</v>
       </c>
       <c r="T18">
-        <v>0.04198174550516656</v>
+        <v>0.03882124712912632</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.72823555972871</v>
+        <v>1.773942666666667</v>
       </c>
       <c r="H19">
-        <v>1.72823555972871</v>
+        <v>5.321828</v>
       </c>
       <c r="I19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641542</v>
       </c>
       <c r="J19">
-        <v>0.07750376133635464</v>
+        <v>0.07518270609641543</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="N19">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="O19">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="P19">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="Q19">
-        <v>56.66816869116131</v>
+        <v>67.68299726902978</v>
       </c>
       <c r="R19">
-        <v>56.66816869116131</v>
+        <v>609.1469754212681</v>
       </c>
       <c r="S19">
-        <v>0.005788309443078006</v>
+        <v>0.006092179098311694</v>
       </c>
       <c r="T19">
-        <v>0.005788309443078006</v>
+        <v>0.006092179098311695</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H20">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J20">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="N20">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="O20">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="P20">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="Q20">
-        <v>52.91955681466781</v>
+        <v>87.17691223092601</v>
       </c>
       <c r="R20">
-        <v>52.91955681466781</v>
+        <v>784.592210078334</v>
       </c>
       <c r="S20">
-        <v>0.00540541149482428</v>
+        <v>0.007846835748682463</v>
       </c>
       <c r="T20">
-        <v>0.00540541149482428</v>
+        <v>0.007846835748682465</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H21">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J21">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="N21">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="O21">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="P21">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="Q21">
-        <v>87.77929408939075</v>
+        <v>91.52696244720002</v>
       </c>
       <c r="R21">
-        <v>87.77929408939075</v>
+        <v>823.7426620248001</v>
       </c>
       <c r="S21">
-        <v>0.008966122050871756</v>
+        <v>0.00823838585836292</v>
       </c>
       <c r="T21">
-        <v>0.008966122050871756</v>
+        <v>0.008238385858362923</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H22">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J22">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="N22">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="O22">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="P22">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="Q22">
-        <v>97.37085245840801</v>
+        <v>104.749983166794</v>
       </c>
       <c r="R22">
-        <v>97.37085245840801</v>
+        <v>942.7498485011459</v>
       </c>
       <c r="S22">
-        <v>0.00994584151531734</v>
+        <v>0.009428596305519255</v>
       </c>
       <c r="T22">
-        <v>0.00994584151531734</v>
+        <v>0.009428596305519257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H23">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J23">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="N23">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="O23">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="P23">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="Q23">
-        <v>115.5654905909196</v>
+        <v>131.148071725888</v>
       </c>
       <c r="R23">
-        <v>115.5654905909196</v>
+        <v>1180.332645532992</v>
       </c>
       <c r="S23">
-        <v>0.01180431335494519</v>
+        <v>0.01180470093805866</v>
       </c>
       <c r="T23">
-        <v>0.01180431335494519</v>
+        <v>0.01180470093805866</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H24">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J24">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="N24">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="O24">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="P24">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="Q24">
-        <v>499.3061584867869</v>
+        <v>531.7392431452221</v>
       </c>
       <c r="R24">
-        <v>499.3061584867869</v>
+        <v>4785.653188306998</v>
       </c>
       <c r="S24">
-        <v>0.05100109318702679</v>
+        <v>0.04786210471686219</v>
       </c>
       <c r="T24">
-        <v>0.05100109318702679</v>
+        <v>0.0478621047168622</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.09952925420907</v>
+        <v>2.187066</v>
       </c>
       <c r="H25">
-        <v>2.09952925420907</v>
+        <v>6.561198</v>
       </c>
       <c r="I25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479572</v>
       </c>
       <c r="J25">
-        <v>0.0941546499960096</v>
+        <v>0.09269157531479573</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="N25">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="O25">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="P25">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="Q25">
-        <v>68.84274384923781</v>
+        <v>83.44530231258202</v>
       </c>
       <c r="R25">
-        <v>68.84274384923781</v>
+        <v>751.0077208132381</v>
       </c>
       <c r="S25">
-        <v>0.007031868393024248</v>
+        <v>0.007510951747310226</v>
       </c>
       <c r="T25">
-        <v>0.007031868393024248</v>
+        <v>0.007510951747310229</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H26">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J26">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="N26">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="O26">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="P26">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="Q26">
-        <v>61.70339850162163</v>
+        <v>98.558915761554</v>
       </c>
       <c r="R26">
-        <v>61.70339850162163</v>
+        <v>887.0302418539861</v>
       </c>
       <c r="S26">
-        <v>0.006302627603221785</v>
+        <v>0.008871335354256679</v>
       </c>
       <c r="T26">
-        <v>0.006302627603221785</v>
+        <v>0.008871335354256681</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H27">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J27">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="N27">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="O27">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="P27">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="Q27">
-        <v>102.3493220541763</v>
+        <v>103.4769178088</v>
       </c>
       <c r="R27">
-        <v>102.3493220541763</v>
+        <v>931.2922602792001</v>
       </c>
       <c r="S27">
-        <v>0.01045436196407779</v>
+        <v>0.009314007081080395</v>
       </c>
       <c r="T27">
-        <v>0.01045436196407779</v>
+        <v>0.009314007081080397</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H28">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J28">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="N28">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="O28">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="P28">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="Q28">
-        <v>113.5329332542421</v>
+        <v>118.426364306326</v>
       </c>
       <c r="R28">
-        <v>113.5329332542421</v>
+        <v>1065.837278756934</v>
       </c>
       <c r="S28">
-        <v>0.01159669996109075</v>
+        <v>0.01065961394186329</v>
       </c>
       <c r="T28">
-        <v>0.01159669996109075</v>
+        <v>0.0106596139418633</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H29">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J29">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="N29">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="O29">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="P29">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="Q29">
-        <v>134.7476046320642</v>
+        <v>148.2710435910186</v>
       </c>
       <c r="R29">
-        <v>134.7476046320642</v>
+        <v>1334.439392319168</v>
       </c>
       <c r="S29">
-        <v>0.01376364986443565</v>
+        <v>0.01334594786131602</v>
       </c>
       <c r="T29">
-        <v>0.01376364986443565</v>
+        <v>0.01334594786131602</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H30">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J30">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="N30">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="O30">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="P30">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="Q30">
-        <v>582.1833878791044</v>
+        <v>601.1642524506714</v>
       </c>
       <c r="R30">
-        <v>582.1833878791044</v>
+        <v>5410.478272056042</v>
       </c>
       <c r="S30">
-        <v>0.05946649908574463</v>
+        <v>0.05411108315541437</v>
       </c>
       <c r="T30">
-        <v>0.05946649908574463</v>
+        <v>0.05411108315541437</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.44801918300207</v>
+        <v>2.472614</v>
       </c>
       <c r="H31">
-        <v>2.44801918300207</v>
+        <v>7.417842</v>
       </c>
       <c r="I31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="J31">
-        <v>0.1097828900916686</v>
+        <v>0.1047935850154583</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="N31">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="O31">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="P31">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="Q31">
-        <v>80.26959244105389</v>
+        <v>94.34009889611134</v>
       </c>
       <c r="R31">
-        <v>80.26959244105389</v>
+        <v>849.0608900650021</v>
       </c>
       <c r="S31">
-        <v>0.008199051613097991</v>
+        <v>0.008491597621527529</v>
       </c>
       <c r="T31">
-        <v>0.008199051613097991</v>
+        <v>0.008491597621527531</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H32">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J32">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>25.2054391281171</v>
+        <v>39.860211</v>
       </c>
       <c r="N32">
-        <v>25.2054391281171</v>
+        <v>119.580633</v>
       </c>
       <c r="O32">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534135</v>
       </c>
       <c r="P32">
-        <v>0.05740992606369806</v>
+        <v>0.08465532840534136</v>
       </c>
       <c r="Q32">
-        <v>143.0532179392214</v>
+        <v>237.358468376892</v>
       </c>
       <c r="R32">
-        <v>143.0532179392214</v>
+        <v>2136.226215392028</v>
       </c>
       <c r="S32">
-        <v>0.01461201784679239</v>
+        <v>0.02136474976285735</v>
       </c>
       <c r="T32">
-        <v>0.01461201784679239</v>
+        <v>0.02136474976285736</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H33">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J33">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>41.80903596052</v>
+        <v>41.8492</v>
       </c>
       <c r="N33">
-        <v>41.80903596052</v>
+        <v>125.5476</v>
       </c>
       <c r="O33">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630085</v>
       </c>
       <c r="P33">
-        <v>0.09522760746550225</v>
+        <v>0.08887955383630086</v>
       </c>
       <c r="Q33">
-        <v>237.2867658717834</v>
+        <v>249.2024443824001</v>
       </c>
       <c r="R33">
-        <v>237.2867658717834</v>
+        <v>2242.8219994416</v>
       </c>
       <c r="S33">
-        <v>0.02423740274894944</v>
+        <v>0.02243083173282173</v>
       </c>
       <c r="T33">
-        <v>0.02423740274894944</v>
+        <v>0.02243083173282174</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H34">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J34">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.3774687888735</v>
+        <v>47.89520899999999</v>
       </c>
       <c r="N34">
-        <v>46.3774687888735</v>
+        <v>143.685627</v>
       </c>
       <c r="O34">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="P34">
-        <v>0.1056330358164876</v>
+        <v>0.1017200999497333</v>
       </c>
       <c r="Q34">
-        <v>263.2148607450096</v>
+        <v>285.205049487348</v>
       </c>
       <c r="R34">
-        <v>263.2148607450096</v>
+        <v>2566.845445386132</v>
       </c>
       <c r="S34">
-        <v>0.02688580025079294</v>
+        <v>0.02567144351355172</v>
       </c>
       <c r="T34">
-        <v>0.02688580025079294</v>
+        <v>0.02567144351355173</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H35">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J35">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>55.0435248088292</v>
+        <v>59.96530133333332</v>
       </c>
       <c r="N35">
-        <v>55.0435248088292</v>
+        <v>179.895904</v>
       </c>
       <c r="O35">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="P35">
-        <v>0.1253715387975578</v>
+        <v>0.1273546263289621</v>
       </c>
       <c r="Q35">
-        <v>312.3989751020298</v>
+        <v>357.079697351296</v>
       </c>
       <c r="R35">
-        <v>312.3989751020298</v>
+        <v>3213.717276161664</v>
       </c>
       <c r="S35">
-        <v>0.03190965897355722</v>
+        <v>0.0321409150955323</v>
       </c>
       <c r="T35">
-        <v>0.03190965897355722</v>
+        <v>0.0321409150955323</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H36">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J36">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>237.818147799462</v>
+        <v>243.1290336666667</v>
       </c>
       <c r="N36">
-        <v>237.818147799462</v>
+        <v>729.387101</v>
       </c>
       <c r="O36">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="P36">
-        <v>0.5416736527530853</v>
+        <v>0.5163587365336566</v>
       </c>
       <c r="Q36">
-        <v>1349.734521748831</v>
+        <v>1447.777962065324</v>
       </c>
       <c r="R36">
-        <v>1349.734521748831</v>
+        <v>13030.00165858792</v>
       </c>
       <c r="S36">
-        <v>0.1378671881998844</v>
+        <v>0.1303151898612291</v>
       </c>
       <c r="T36">
-        <v>0.1378671881998844</v>
+        <v>0.1303151898612291</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>5.67549000880699</v>
+        <v>5.954772000000001</v>
       </c>
       <c r="H37">
-        <v>5.67549000880699</v>
+        <v>17.864316</v>
       </c>
       <c r="I37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784662</v>
       </c>
       <c r="J37">
-        <v>0.254520757100086</v>
+        <v>0.2523733610784663</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>32.789609247513</v>
+        <v>38.15399366666667</v>
       </c>
       <c r="N37">
-        <v>32.789609247513</v>
+        <v>114.461981</v>
       </c>
       <c r="O37">
-        <v>0.07468423910366899</v>
+        <v>0.0810316549460057</v>
       </c>
       <c r="P37">
-        <v>0.07468423910366899</v>
+        <v>0.08103165494600571</v>
       </c>
       <c r="Q37">
-        <v>186.0970996769453</v>
+        <v>227.1983331744441</v>
       </c>
       <c r="R37">
-        <v>186.0970996769453</v>
+        <v>2044.784998569996</v>
       </c>
       <c r="S37">
-        <v>0.01900868908010968</v>
+        <v>0.02045023111247398</v>
       </c>
       <c r="T37">
-        <v>0.01900868908010968</v>
+        <v>0.02045023111247398</v>
       </c>
     </row>
   </sheetData>
